--- a/data/trans_bre/P1002-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P1002-Edad-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.9410269044802698</v>
+        <v>-0.7797827107594499</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.309157267829884</v>
+        <v>0.4329399977950864</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-2.072259250723339</v>
+        <v>-1.988654716035284</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1.06502182826301</v>
+        <v>1.109223888069993</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.4127243499719201</v>
+        <v>-0.3706000680967495</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.08026778336697415</v>
+        <v>0.001182451847827966</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.6532318565554047</v>
+        <v>-0.6313941905617922</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.4707911092600178</v>
+        <v>-0.357184419239397</v>
       </c>
     </row>
     <row r="6">
@@ -692,25 +692,25 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.968781923985186</v>
+        <v>3.187395985643598</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>4.870258909693524</v>
+        <v>5.324694973527565</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2.159844598901</v>
+        <v>2.177646746386273</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>9.129844522876306</v>
+        <v>9.420945883866253</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>3.598434871969799</v>
+        <v>3.876964290667868</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>4.070700596781249</v>
+        <v>4.064192903871418</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1.923603224835881</v>
+        <v>2.016537300672407</v>
       </c>
       <c r="J6" s="6" t="inlineStr"/>
     </row>
@@ -735,7 +735,7 @@
         <v>0.2276048491574659</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>2.768956614912758</v>
+        <v>2.768956614912757</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>1.286090299398371</v>
@@ -747,7 +747,7 @@
         <v>0.06121177793383415</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.9164842760134718</v>
+        <v>0.9164842760134716</v>
       </c>
     </row>
     <row r="8">
@@ -758,28 +758,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>1.076579991784716</v>
+        <v>1.154562133721381</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.154902524244124</v>
+        <v>0.2754679940007975</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-1.892652553783053</v>
+        <v>-1.951964014310546</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-0.5578233955260495</v>
+        <v>-0.3694723048115366</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.2187432130301998</v>
+        <v>0.2441900722764591</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.004163620398839883</v>
+        <v>0.04234478198283047</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.4034267017454852</v>
+        <v>-0.4277625276939109</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.1992213298034722</v>
+        <v>-0.1521106009112036</v>
       </c>
     </row>
     <row r="9">
@@ -790,28 +790,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.768710045886014</v>
+        <v>5.971944512814873</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>4.79864454004956</v>
+        <v>4.671533572757266</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>2.468699633298356</v>
+        <v>2.296663653432124</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>5.978593983186276</v>
+        <v>6.022141866553906</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>3.060616609090343</v>
+        <v>3.176200827072717</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>2.772898576767768</v>
+        <v>2.646095577354548</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.9912511464698008</v>
+        <v>0.897245386174879</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>3.680188148632086</v>
+        <v>3.785096456200293</v>
       </c>
     </row>
     <row r="10">
@@ -858,28 +858,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.473847951436283</v>
+        <v>-1.389636742545517</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>3.769337786597136</v>
+        <v>3.549295047176858</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.4987259106168258</v>
+        <v>0.2200889049090579</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-2.045496535795654</v>
+        <v>-2.313187413566812</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.2933476587916974</v>
+        <v>-0.2871406788769935</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5804542589996174</v>
+        <v>0.5694768873079236</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.04706536495351434</v>
+        <v>0.0215787895162342</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.3295869890452175</v>
+        <v>-0.3612440737618828</v>
       </c>
     </row>
     <row r="12">
@@ -890,28 +890,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.470795623736125</v>
+        <v>3.295402486439237</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>9.455346314560694</v>
+        <v>9.5445721466742</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>4.816316987657139</v>
+        <v>4.883599815045116</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>2.833335665694555</v>
+        <v>2.776424637395078</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>1.217983373130913</v>
+        <v>1.082916024529578</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>2.732779422347733</v>
+        <v>2.951624529351518</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>2.086868871337605</v>
+        <v>1.990684081233442</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.8007895222967278</v>
+        <v>0.7948107110644386</v>
       </c>
     </row>
     <row r="13">
@@ -935,7 +935,7 @@
         <v>3.241073058954805</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>2.122535312402841</v>
+        <v>2.122535312402844</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>1.127908837896855</v>
@@ -947,7 +947,7 @@
         <v>0.5116372424639665</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.3429170065041185</v>
+        <v>0.342917006504119</v>
       </c>
     </row>
     <row r="14">
@@ -958,28 +958,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>2.254538392096085</v>
+        <v>1.995905417730599</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>2.822578795189726</v>
+        <v>2.77150857476793</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-0.04342801319086522</v>
+        <v>0.09809491410159626</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-0.7897812593854433</v>
+        <v>-0.3944483453982964</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.3777789747907521</v>
+        <v>0.3164881530324309</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3470472558064681</v>
+        <v>0.3329156785596015</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.009512139906845581</v>
+        <v>0.01131190456817298</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.09680674368261588</v>
+        <v>-0.06223636789303799</v>
       </c>
     </row>
     <row r="15">
@@ -990,28 +990,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>8.443406060164135</v>
+        <v>8.525035331521288</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>10.30839103460911</v>
+        <v>10.00679221502836</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>6.352913636741129</v>
+        <v>6.096210656775219</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>4.39705872353957</v>
+        <v>4.767404669883595</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>2.580167466337821</v>
+        <v>2.817934019548038</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>2.065086389495964</v>
+        <v>1.950219974070918</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.271506385703917</v>
+        <v>1.246651913204563</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.9165062158728404</v>
+        <v>1.059375245693566</v>
       </c>
     </row>
     <row r="16">
@@ -1035,7 +1035,7 @@
         <v>10.28060008767265</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>5.396880074171994</v>
+        <v>5.396880074171992</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3132775519021733</v>
@@ -1047,7 +1047,7 @@
         <v>1.810587664206404</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.736158749534547</v>
+        <v>0.7361587495345465</v>
       </c>
     </row>
     <row r="17">
@@ -1058,28 +1058,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.721824722781329</v>
+        <v>-1.293324375790603</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>5.938022854717549</v>
+        <v>5.844050940235078</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>6.324602794879588</v>
+        <v>6.339678960420788</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2.275122888244995</v>
+        <v>2.517309343224081</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.1914287011063149</v>
+        <v>-0.1418882956202568</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5030177096823785</v>
+        <v>0.4914420133905212</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7651538874450227</v>
+        <v>0.825695526493728</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.2338403785807943</v>
+        <v>0.2661374319273572</v>
       </c>
     </row>
     <row r="18">
@@ -1090,28 +1090,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>6.314669588309449</v>
+        <v>6.441738131670796</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>15.39596151417337</v>
+        <v>15.07449920050708</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>14.39358691259579</v>
+        <v>14.2439764568968</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>8.254414720760359</v>
+        <v>8.287749098206712</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1.139099440263397</v>
+        <v>1.168364633185475</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>2.071070794056796</v>
+        <v>2.100244778726261</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>3.364481475458502</v>
+        <v>3.337470942773124</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>1.365068680060454</v>
+        <v>1.407456140469769</v>
       </c>
     </row>
     <row r="19">
@@ -1135,7 +1135,7 @@
         <v>9.0871775173143</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>6.993971938789188</v>
+        <v>6.993971938789184</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3659368759810757</v>
@@ -1147,7 +1147,7 @@
         <v>1.024836534742052</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>0.9388791995265272</v>
+        <v>0.9388791995265265</v>
       </c>
     </row>
     <row r="20">
@@ -1158,28 +1158,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-1.166878380097406</v>
+        <v>-1.323124434203925</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>2.832072708880214</v>
+        <v>2.313622572428674</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>4.10980471946765</v>
+        <v>3.372680484052698</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>3.883531192747915</v>
+        <v>3.647567049343708</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.09224255199483729</v>
+        <v>-0.09243196712779111</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1524694707215685</v>
+        <v>0.12173690715215</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3359772253622333</v>
+        <v>0.3130043643659826</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.4180852510860842</v>
+        <v>0.4011453138777668</v>
       </c>
     </row>
     <row r="21">
@@ -1190,28 +1190,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>8.16066865189927</v>
+        <v>8.372900682345827</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>14.38017606142223</v>
+        <v>14.60371014202083</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>13.69599788317071</v>
+        <v>14.10308592124233</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>10.46514031983502</v>
+        <v>10.35248714224808</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>1.015611604203357</v>
+        <v>1.019907559446029</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.446494101463881</v>
+        <v>1.467917993272511</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>2.089189569464495</v>
+        <v>2.253015897799987</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>1.872155173367044</v>
+        <v>1.782372509174377</v>
       </c>
     </row>
     <row r="22">
@@ -1247,7 +1247,7 @@
         <v>1.099081945333091</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>1.2239051637419</v>
+        <v>1.223905163741899</v>
       </c>
     </row>
     <row r="23">
@@ -1258,28 +1258,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-4.377611334230057</v>
+        <v>-4.159645735107709</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>2.998680352779202</v>
+        <v>2.895931438230014</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>6.989787592525981</v>
+        <v>6.254541397268023</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>9.58145598168681</v>
+        <v>9.161008331082199</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.2300642985476366</v>
+        <v>-0.2131509288944855</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1187012024906441</v>
+        <v>0.1126294586340964</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.4482819412625568</v>
+        <v>0.401005468566183</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>0.6834711342594592</v>
+        <v>0.6489835447651974</v>
       </c>
     </row>
     <row r="24">
@@ -1290,28 +1290,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>8.949942139283264</v>
+        <v>8.650795375367679</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>17.93672305148062</v>
+        <v>17.4870013425439</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>19.70323666844616</v>
+        <v>18.53774332442596</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>18.699581686619</v>
+        <v>17.77718531425939</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.7385601549621419</v>
+        <v>0.6816886372807202</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>1.071181769827401</v>
+        <v>1.021921827558973</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>2.080912967025252</v>
+        <v>2.052144090533288</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>2.16393438732913</v>
+        <v>1.945580070908886</v>
       </c>
     </row>
     <row r="25">
@@ -1358,28 +1358,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>2.063659110353194</v>
+        <v>2.051638598356188</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>5.731194472449117</v>
+        <v>5.592432617412708</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>4.089863769871914</v>
+        <v>3.997694201210942</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3.866793816122824</v>
+        <v>3.831151345482581</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.3643941518647506</v>
+        <v>0.3505054689953788</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7559146520096518</v>
+        <v>0.7606524542807338</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.6768243993251126</v>
+        <v>0.6690947319245106</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.6045542252333197</v>
+        <v>0.5873337415545804</v>
       </c>
     </row>
     <row r="27">
@@ -1390,28 +1390,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>4.572427938750856</v>
+        <v>4.56999767347823</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>8.781154923821893</v>
+        <v>8.652502326713964</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>6.637792413217778</v>
+        <v>6.694477599865177</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>6.254405986889414</v>
+        <v>6.259878651109811</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.9833234910823551</v>
+        <v>0.9665475163289505</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.451942773108299</v>
+        <v>1.423023246358733</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>1.389985086390445</v>
+        <v>1.387136995014101</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>1.194851271928271</v>
+        <v>1.240386796533379</v>
       </c>
     </row>
     <row r="28">
